--- a/biology/Botanique/Salzm/Salzm..xlsx
+++ b/biology/Botanique/Salzm/Salzm..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philipp Salzmann est un botaniste, un entomologiste, un médecin et un pédagogue prussien, né en 1781 à Erfurt et mort en 1851 à Montpellier.
 Il est le fils du pédagogue Christian Gotthilf Salzmann (1744-1811). Il étudie la médecine à Göttingen, à Vienne, à Halle et à Paris. Il s’installe à Montpellier et voyage, de 1823 à 1830, en Espagne, en Afrique du Nord (1823-1824) et au Brésil (1827-1830).
@@ -512,7 +524,9 @@
           <t>Source bibliographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Augustin-Pyramus de Candolle (2004). Mémoires et Souvenirs (1778-1841) édités par Jean-Daniel Candaux et Jean-Marc Drouin avec le concours de Patrick Bungener et René Sigrist. Georg Éditeur (Chêne-Bourg, Genève), coll. « Bibliothèque d’histoire des sciences », xv + 591 p.  (ISBN 2-8257-0832-1).</t>
         </is>
